--- a/pred_ohlcv/54_21/2020-01-12 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BTG ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>5639.490302619999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5639.277702619999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5752.421602619999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5545.385502619999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5535.385502619999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5460.385502619999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5408.818802619999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5585.740502619999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5538.194702619999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5555.363502619999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5662.236702619999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5649.588602619999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5681.371902619999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5681.972002619998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5654.154302619999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5654.049302619999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5653.918402619999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5654.028402619999</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5653.602102619999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5653.689502619999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5654.520702619999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5545.498902619999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5864.274902619999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5864.374902619999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>5579.80320262</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>5561.41300262</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5561.41300262</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>5561.41300262</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5575.30670262</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>5578.30670262</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5824.445102619999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5840.75360262</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5952.030402619999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>6048.076102619999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>6062.427502619998</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6062.415702619998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6062.306302619998</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6063.306302619998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>6039.516102619998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6041.352102619998</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>6041.432102619998</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6038.752002619997</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>6038.042102619997</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>6037.842102619998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>6030.094602619998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5981.897602619998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5964.646202619998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>5964.646202619998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>5964.535702619998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5964.535702619998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>5967.735702619998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>5985.735702619998</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5985.735702619998</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>5944.315702619998</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5944.415702619998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5943.415702619998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>5943.515702619999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>5943.515702619999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>6002.223702619998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5943.44420262</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5941.398202620001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5870.90510262</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5899.45580262</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4487.92170262</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4323.36170262</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4482.22030262</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18532.22121686</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>19608.71161686</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>19355.29431686</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>19958.391602</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>21541.527402</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>20883.56520199999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>20095.44900199999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>19996.35190199999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>21344.87930199999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>21654.65880199999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>21573.18260199999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>21124.54710199999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>21160.59370199999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>21429.737402</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>22677.51930199999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>21292.00920199999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>21114.25032251999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>20776.23152251999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>20409.68082251999</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>20570.77412251999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>19650.11482251999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>19195.01682251999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>19177.37322251999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>16929.03692251999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>15815.89552251999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>16077.71672251999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>16073.52292251999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>16173.96362251999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>17336.42832251999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>15913.75592251999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>16019.51582251999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>16019.58262251999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>16611.14191319999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>16249.11431319999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>16244.53851319999</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>16148.66151319999</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>16043.39141319999</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>16047.95141319999</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>16055.13301319999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>19252.73821319999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>19249.58211319999</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>19419.27641319999</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>19091.56471319999</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>19091.6296132</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>18914.70181319999</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>18769.45431319999</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>18824.26761319999</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>18130.08181319999</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>17499.18864673</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>35248.69132931</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>35248.69132931</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>33574.4341594</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>32605.4736594</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>33447.59596524</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>32306.13786524</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>31029.54746524</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>30490.52436524</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>32434.3238406</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>32363.4616406</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>32389.7685406</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>32778.9612406</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>32939.1802406</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>33762.4687406</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>33548.01084060001</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>33388.01214060001</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>33971.14004060001</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>33971.14004060001</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>33678.89924060001</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>33851.63274060001</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>33754.36184060001</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>33690.13494060001</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>33690.13494060001</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>33366.14884060001</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>33369.95754060001</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>35223.3333553</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>35100.3333553</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>34579.78454443</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>33994.34284443</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>35020.02034443</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>34560.31664443</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>34478.80064443</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>34516.59364443</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>34313.13934443</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>34148.98174443</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>34836.02054624</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>34950.69554624</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>34950.69554624</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>34870.51574624</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>35043.60454624</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>35032.37384624</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>35032.25244624</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>34931.60244623999</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>34302.57754624</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>33344.58584624</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>33034.06434624</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>24275.21681144002</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>24203.40851144001</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>24236.61821144001</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>24236.41811144001</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>24216.72041144001</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>22151.16416702001</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>22388.34477165001</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>22065.49277165001</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>22043.27277165001</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>21993.39277165001</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>22033.39277165001</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>21697.09887165001</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>21897.47677165001</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>21883.54957165001</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>21902.33527165001</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>21902.23527165001</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>21902.13527165002</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>21902.03527165002</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>21901.83527165002</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>21871.83527165002</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>21872.44357165002</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>21676.30877165002</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>21676.85777165001</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>21506.85777165001</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>22274.62917165001</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>22074.63017165001</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 BTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3609.89223889</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4252.639838890001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3729.258138890001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4749.881238890001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>5917.74303889</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>5782.95660262</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>5732.57960262</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>5864.98350262</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5524.124502619999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5610.281302619999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5639.490302619999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5639.277702619999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>5752.421602619999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>5545.385502619999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>5535.385502619999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5478.385502619999</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>5460.385502619999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>5408.818802619999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>5585.740502619999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>5538.194702619999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>5555.363502619999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5662.236702619999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5671.236702619999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>5609.061702619999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>5649.588602619999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>5681.371902619999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>5681.972002619998</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5654.154302619999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5654.049302619999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>5653.918402619999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>5654.028402619999</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>5653.602102619999</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5653.689502619999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>5654.520702619999</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>5653.520702619999</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5707.716802619999</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5708.716802619999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>5546.346702619999</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>5545.498902619999</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>5864.274902619999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>5864.374902619999</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>5539.685502619999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>5579.70320262</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>5579.80320262</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>5579.80320262</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>5579.80320262</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>5579.80320262</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>5524.54650262</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>5524.33310262</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6062.306302619998</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6063.306302619998</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6039.653802619998</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>6041.231502619998</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>6038.852002619998</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>6038.042102619997</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>6037.842102619998</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>6037.942102619998</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>6030.094602619998</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5981.897602619998</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>6002.223702619998</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>5996.123702619998</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>5943.44420262</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>5941.198202620001</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>5941.398202620001</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>5941.098202620001</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>5934.006002620001</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>5870.90510262</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>5899.45580262</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4583.320302620001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>4482.22030262</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>18532.22121686</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>19608.71161686</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>19355.29431686</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>19958.391602</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>21541.527402</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>20883.56520199999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>20095.44900199999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>19996.35190199999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>21344.87930199999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>21654.65880199999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>21573.18260199999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>21124.54710199999</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>21160.59370199999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>21429.737402</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>22677.51930199999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>21292.00920199999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>21114.25032251999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>20776.23152251999</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>20409.68082251999</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>20570.77412251999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>19650.11482251999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>19195.01682251999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>19177.37322251999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>16929.03692251999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>15815.89552251999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>16077.71672251999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>16073.52292251999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>15876.26732251999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>16173.96362251999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>17336.42832251999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>15913.75592251999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>16019.51582251999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>16019.58262251999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>16611.14191319999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>16248.04671319999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>16249.11431319999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>16244.53851319999</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>16148.66151319999</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>16043.39141319999</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>16047.95141319999</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>16055.13301319999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>19252.73821319999</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>19249.58211319999</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>19419.27641319999</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>19091.56471319999</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>19091.6296132</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>18914.70181319999</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>18769.45431319999</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>18824.26761319999</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>18130.08181319999</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>17499.18864673</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>35248.69132931</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>35248.69132931</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>33574.4341594</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>32605.4736594</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>33447.59596524</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>32306.13786524</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>31029.54746524</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>30490.52436524</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>32416.91552656</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>31958.67852656</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>31397.58156416</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>32441.13236416</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>32347.9794406</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>32434.3238406</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>32363.4616406</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>32389.7685406</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>32778.9612406</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>32939.1802406</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>33762.4687406</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>33548.01084060001</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>33388.01214060001</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>33971.14004060001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>33971.14004060001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>33678.89924060001</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>33851.63274060001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>33754.36184060001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>33690.13494060001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>33690.13494060001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>33369.95754060001</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>35100.3333553</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>34579.78454443</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>33994.34284443</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>35020.02034443</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>34560.31664443</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>34478.80064443</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>34516.59364443</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>34313.13934443</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>34148.98174443</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>33872.05344443</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>33802.75588611</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>33590.17392266</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>34166.52724624</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>35043.60454624</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>35032.25244624</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>24341.98101144002</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>24275.21681144002</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>24159.68481144001</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>24203.40851144001</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>24236.61821144001</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>24236.41811144001</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>24161.70561144001</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>24216.72041144001</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>22151.16416702001</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>22388.34477165001</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>22065.49277165001</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>22043.27277165001</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>21993.39277165001</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>22033.39277165001</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>22033.32277165001</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>21697.09887165001</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>21897.47677165001</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>21883.54957165001</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>21892.54957165001</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>21685.29017165001</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>21902.33527165001</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>21902.23527165001</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>21902.13527165002</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>21902.03527165002</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>21901.83527165002</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>21871.83527165002</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>21872.44357165002</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>21676.30877165002</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>21676.85777165001</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>21506.85777165001</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>22274.62917165001</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>22074.63017165001</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
